--- a/Experimental_Results/data/gate_and_measurement_error_10q.xlsx
+++ b/Experimental_Results/data/gate_and_measurement_error_10q.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="readout_errors" sheetId="1" r:id="rId1"/>
     <sheet name="sq_gate" sheetId="2" r:id="rId2"/>
-    <sheet name="CZ" sheetId="3" r:id="rId3"/>
-    <sheet name="algorithm_z" sheetId="4" r:id="rId4"/>
-    <sheet name="coherence_time" sheetId="5" r:id="rId5"/>
-    <sheet name="f10s" sheetId="6" r:id="rId6"/>
+    <sheet name="CZ_cycle" sheetId="3" r:id="rId3"/>
+    <sheet name="CZ" sheetId="4" r:id="rId4"/>
+    <sheet name="algorithm_z" sheetId="5" r:id="rId5"/>
+    <sheet name="coherence_time" sheetId="6" r:id="rId6"/>
+    <sheet name="f10s" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>measureF0</t>
   </si>
@@ -63,34 +64,37 @@
     <t>sq_errors</t>
   </si>
   <si>
+    <t>cz_errors_cycle</t>
+  </si>
+  <si>
+    <t>c10_7</t>
+  </si>
+  <si>
+    <t>c12_7</t>
+  </si>
+  <si>
+    <t>c3_14</t>
+  </si>
+  <si>
+    <t>c4_13</t>
+  </si>
+  <si>
+    <t>c5_10</t>
+  </si>
+  <si>
+    <t>c5_12</t>
+  </si>
+  <si>
+    <t>c5_8</t>
+  </si>
+  <si>
+    <t>c6_7</t>
+  </si>
+  <si>
+    <t>c8_7</t>
+  </si>
+  <si>
     <t>cz_errors</t>
-  </si>
-  <si>
-    <t>c10_7</t>
-  </si>
-  <si>
-    <t>c12_7</t>
-  </si>
-  <si>
-    <t>c3_14</t>
-  </si>
-  <si>
-    <t>c4_13</t>
-  </si>
-  <si>
-    <t>c5_10</t>
-  </si>
-  <si>
-    <t>c5_12</t>
-  </si>
-  <si>
-    <t>c5_8</t>
-  </si>
-  <si>
-    <t>c6_7</t>
-  </si>
-  <si>
-    <t>c8_7</t>
   </si>
   <si>
     <t>algorithm_z</t>
@@ -815,6 +819,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.002387399578551386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.002228112826128892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.002137539206894301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.005197383485476048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.005299221208069804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.002660335286164495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.003823982139691484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.002966396423230599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0.003615822736568575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -823,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -847,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -857,13 +951,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1011,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1021,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Experimental_Results/data/gate_and_measurement_error_10q.xlsx
+++ b/Experimental_Results/data/gate_and_measurement_error_10q.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="readout_errors" sheetId="1" r:id="rId1"/>
     <sheet name="sq_gate" sheetId="2" r:id="rId2"/>
-    <sheet name="CZ_cycle" sheetId="3" r:id="rId3"/>
-    <sheet name="CZ" sheetId="4" r:id="rId4"/>
-    <sheet name="algorithm_z" sheetId="5" r:id="rId5"/>
-    <sheet name="coherence_time" sheetId="6" r:id="rId6"/>
-    <sheet name="f10s" sheetId="7" r:id="rId7"/>
+    <sheet name="CZ" sheetId="3" r:id="rId3"/>
+    <sheet name="algorithm_z" sheetId="4" r:id="rId4"/>
+    <sheet name="coherence_time" sheetId="5" r:id="rId5"/>
+    <sheet name="f10s" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>measureF0</t>
   </si>
@@ -64,7 +63,7 @@
     <t>sq_errors</t>
   </si>
   <si>
-    <t>cz_errors_cycle</t>
+    <t>cz_errors</t>
   </si>
   <si>
     <t>c10_7</t>
@@ -92,9 +91,6 @@
   </si>
   <si>
     <t>c8_7</t>
-  </si>
-  <si>
-    <t>cz_errors</t>
   </si>
   <si>
     <t>algorithm_z</t>
@@ -819,7 +815,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,74 +828,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002387399578551386</v>
+        <v>0.000901523454819364</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.002228112826128892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0.002137539206894301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>0.005197383485476048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0.005299221208069804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0.002660335286164495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0.003823982139691484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0.002966396423230599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>0.003615822736568575</v>
+        <v>0.001471508719016107</v>
       </c>
     </row>
   </sheetData>
@@ -908,40 +848,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.000901523454819364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.001471508719016107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -951,13 +857,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1105,7 +1011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1115,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
